--- a/data/unchecked/manual_collect/china/shandong/shandongCaseStatistics_20200316.xlsx
+++ b/data/unchecked/manual_collect/china/shandong/shandongCaseStatistics_20200316.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\test\COVID-19\data\unchecked\manual_collect\china\shandong\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19365567-38B8-4238-B67F-C1D9BB1EA5D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -382,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9400" uniqueCount="3313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9404" uniqueCount="3314">
   <si>
     <t>序号</t>
   </si>
@@ -522,7 +528,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -542,7 +548,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -562,7 +568,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -582,7 +588,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -602,7 +608,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>24</t>
     </r>
@@ -648,7 +654,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -668,7 +674,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -688,7 +694,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -708,7 +714,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -728,7 +734,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>25</t>
     </r>
@@ -753,7 +759,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -773,7 +779,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -793,7 +799,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -813,7 +819,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -833,7 +839,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>26</t>
     </r>
@@ -858,7 +864,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -878,7 +884,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -898,7 +904,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -918,7 +924,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -938,7 +944,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>27</t>
     </r>
@@ -963,7 +969,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -983,7 +989,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1003,7 +1009,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -1023,7 +1029,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -1043,7 +1049,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>28</t>
     </r>
@@ -1068,7 +1074,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -1088,7 +1094,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1108,7 +1114,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -1128,7 +1134,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -1148,7 +1154,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>29</t>
     </r>
@@ -1173,7 +1179,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -1193,7 +1199,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1213,7 +1219,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -1233,7 +1239,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -1253,7 +1259,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>30</t>
     </r>
@@ -1278,7 +1284,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -1298,7 +1304,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1318,7 +1324,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -1338,7 +1344,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -1358,7 +1364,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>31</t>
     </r>
@@ -1383,7 +1389,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -1403,7 +1409,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1423,7 +1429,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -1443,7 +1449,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -1463,7 +1469,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>32</t>
     </r>
@@ -1488,7 +1494,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -1508,7 +1514,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1528,7 +1534,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -1548,7 +1554,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -1568,7 +1574,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>33</t>
     </r>
@@ -1593,7 +1599,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -1613,7 +1619,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1633,7 +1639,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -1653,7 +1659,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -1673,7 +1679,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>34</t>
     </r>
@@ -1698,7 +1704,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -1718,7 +1724,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1738,7 +1744,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -1758,7 +1764,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -1778,7 +1784,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>35</t>
     </r>
@@ -1803,7 +1809,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -1823,7 +1829,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1843,7 +1849,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -1863,7 +1869,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -1883,7 +1889,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>36</t>
     </r>
@@ -1908,7 +1914,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -1928,7 +1934,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1948,7 +1954,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -1968,7 +1974,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -1988,7 +1994,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>37</t>
     </r>
@@ -2013,7 +2019,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -2033,7 +2039,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -2053,7 +2059,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -2073,7 +2079,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -2093,7 +2099,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>38</t>
     </r>
@@ -2118,7 +2124,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -2138,7 +2144,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -2158,7 +2164,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>15</t>
     </r>
@@ -2178,7 +2184,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -2198,7 +2204,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>39</t>
     </r>
@@ -11906,20 +11912,19 @@
   <si>
     <t>吉木乃县</t>
   </si>
+  <si>
+    <t>区县级</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -11988,162 +11993,19 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="-webkit-standard"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -12156,7 +12018,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12175,194 +12037,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -12370,249 +12046,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12645,17 +12082,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12670,63 +12107,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -12984,55 +12378,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AN21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9230769230769" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.9375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.9230769230769" style="11" customWidth="1"/>
-    <col min="2" max="2" width="45.9230769230769" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.9230769230769" style="12" customWidth="1"/>
-    <col min="4" max="4" width="31.9230769230769" style="11" customWidth="1"/>
-    <col min="5" max="5" width="5.07692307692308" style="11" customWidth="1"/>
-    <col min="6" max="6" width="27.3846153846154" style="11" customWidth="1"/>
-    <col min="7" max="7" width="44" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.0769230769231" style="11" customWidth="1"/>
-    <col min="9" max="16" width="12.4615384615385" style="11" customWidth="1"/>
-    <col min="17" max="18" width="26.6153846153846" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.9375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.29296875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="21.41015625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="21.87890625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="5.05859375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.05859375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="6.234375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.05859375" style="11" customWidth="1"/>
+    <col min="9" max="16" width="12.46875" style="11" customWidth="1"/>
+    <col min="17" max="18" width="26.5859375" style="11" customWidth="1"/>
     <col min="19" max="19" width="7" style="11" customWidth="1"/>
-    <col min="20" max="20" width="31.9230769230769" style="12" customWidth="1"/>
+    <col min="20" max="20" width="31.9375" style="12" customWidth="1"/>
     <col min="21" max="21" width="18" style="11" customWidth="1"/>
-    <col min="22" max="22" width="10.6153846153846" style="11" customWidth="1"/>
-    <col min="23" max="23" width="31.9230769230769" style="11" customWidth="1"/>
-    <col min="24" max="24" width="16.0769230769231" style="11" customWidth="1"/>
+    <col min="22" max="22" width="10.5859375" style="11" customWidth="1"/>
+    <col min="23" max="23" width="31.9375" style="11" customWidth="1"/>
+    <col min="24" max="24" width="16.05859375" style="11" customWidth="1"/>
     <col min="25" max="25" width="20" style="11" customWidth="1"/>
-    <col min="26" max="26" width="31.9230769230769" style="11" customWidth="1"/>
-    <col min="27" max="27" width="21.9230769230769" style="11" customWidth="1"/>
-    <col min="28" max="28" width="20.9230769230769" style="11" customWidth="1"/>
-    <col min="29" max="29" width="25.4615384615385" style="11" customWidth="1"/>
-    <col min="30" max="30" width="31.9230769230769" style="11" customWidth="1"/>
-    <col min="31" max="31" width="21.9230769230769" style="11" customWidth="1"/>
-    <col min="32" max="32" width="24.4615384615385" style="11" customWidth="1"/>
+    <col min="26" max="26" width="31.9375" style="11" customWidth="1"/>
+    <col min="27" max="27" width="21.9375" style="11" customWidth="1"/>
+    <col min="28" max="28" width="20.9375" style="11" customWidth="1"/>
+    <col min="29" max="29" width="25.46875" style="11" customWidth="1"/>
+    <col min="30" max="30" width="31.9375" style="11" customWidth="1"/>
+    <col min="31" max="31" width="21.9375" style="11" customWidth="1"/>
+    <col min="32" max="32" width="24.46875" style="11" customWidth="1"/>
     <col min="33" max="33" width="31" style="11" customWidth="1"/>
-    <col min="34" max="34" width="8.92307692307692" style="11" customWidth="1"/>
-    <col min="35" max="36" width="31.9230769230769" style="11" customWidth="1"/>
-    <col min="37" max="37" width="21.9230769230769" style="11" customWidth="1"/>
-    <col min="38" max="38" width="24.4615384615385" style="11" customWidth="1"/>
+    <col min="34" max="34" width="8.9375" style="11" customWidth="1"/>
+    <col min="35" max="36" width="31.9375" style="11" customWidth="1"/>
+    <col min="37" max="37" width="21.9375" style="11" customWidth="1"/>
+    <col min="38" max="38" width="24.46875" style="11" customWidth="1"/>
     <col min="39" max="39" width="31" style="11" customWidth="1"/>
-    <col min="40" max="40" width="5.07692307692308" style="11" customWidth="1"/>
-    <col min="41" max="16384" width="10.9230769230769" style="11"/>
+    <col min="40" max="40" width="5.05859375" style="11" customWidth="1"/>
+    <col min="41" max="16384" width="10.9375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:40">
+    <row r="1" spans="1:40" s="10" customFormat="1" ht="15.75">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -13154,7 +12548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" ht="26" spans="1:36">
+    <row r="2" spans="1:40" ht="23.65">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -13209,7 +12603,7 @@
       </c>
       <c r="W2" s="12"/>
       <c r="Z2" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA2" s="11" t="s">
         <v>46</v>
@@ -13221,7 +12615,7 @@
         <v>48</v>
       </c>
       <c r="AD2" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE2" s="11" t="s">
         <v>46</v>
@@ -13235,7 +12629,7 @@
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
     </row>
-    <row r="3" ht="26" spans="1:33">
+    <row r="3" spans="1:40" ht="23.65">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -13278,7 +12672,7 @@
         <v>45</v>
       </c>
       <c r="Z3" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA3" s="11" t="s">
         <v>46</v>
@@ -13290,7 +12684,7 @@
         <v>48</v>
       </c>
       <c r="AD3" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE3" s="11" t="s">
         <v>46</v>
@@ -13302,7 +12696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="26" spans="1:33">
+    <row r="4" spans="1:40" ht="23.65">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -13348,7 +12742,7 @@
         <v>45</v>
       </c>
       <c r="Z4" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA4" s="11" t="s">
         <v>46</v>
@@ -13360,7 +12754,7 @@
         <v>48</v>
       </c>
       <c r="AD4" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE4" s="11" t="s">
         <v>46</v>
@@ -13372,7 +12766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="26" spans="1:33">
+    <row r="5" spans="1:40" ht="23.65">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -13420,7 +12814,7 @@
         <v>45</v>
       </c>
       <c r="Z5" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA5" s="11" t="s">
         <v>46</v>
@@ -13432,7 +12826,7 @@
         <v>48</v>
       </c>
       <c r="AD5" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE5" s="11" t="s">
         <v>46</v>
@@ -13444,7 +12838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" ht="26" spans="1:33">
+    <row r="6" spans="1:40" ht="23.65">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -13487,7 +12881,7 @@
         <v>45</v>
       </c>
       <c r="Z6" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA6" s="11" t="s">
         <v>46</v>
@@ -13499,7 +12893,7 @@
         <v>48</v>
       </c>
       <c r="AD6" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE6" s="11" t="s">
         <v>46</v>
@@ -13511,7 +12905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" ht="26" spans="1:33">
+    <row r="7" spans="1:40" ht="23.65">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -13550,7 +12944,7 @@
         <v>45</v>
       </c>
       <c r="Z7" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA7" s="11" t="s">
         <v>46</v>
@@ -13562,7 +12956,7 @@
         <v>48</v>
       </c>
       <c r="AD7" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE7" s="11" t="s">
         <v>46</v>
@@ -13574,7 +12968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" ht="26" spans="1:33">
+    <row r="8" spans="1:40" ht="23.65">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -13617,7 +13011,7 @@
         <v>45</v>
       </c>
       <c r="Z8" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA8" s="11" t="s">
         <v>46</v>
@@ -13629,7 +13023,7 @@
         <v>48</v>
       </c>
       <c r="AD8" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE8" s="11" t="s">
         <v>46</v>
@@ -13641,7 +13035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="26" spans="1:33">
+    <row r="9" spans="1:40" ht="23.65">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -13684,7 +13078,7 @@
         <v>45</v>
       </c>
       <c r="Z9" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA9" s="11" t="s">
         <v>46</v>
@@ -13696,7 +13090,7 @@
         <v>48</v>
       </c>
       <c r="AD9" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE9" s="11" t="s">
         <v>46</v>
@@ -13708,7 +13102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" ht="26" spans="1:33">
+    <row r="10" spans="1:40" ht="23.65">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -13751,7 +13145,7 @@
         <v>45</v>
       </c>
       <c r="Z10" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA10" s="11" t="s">
         <v>46</v>
@@ -13763,7 +13157,7 @@
         <v>48</v>
       </c>
       <c r="AD10" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE10" s="11" t="s">
         <v>46</v>
@@ -13775,7 +13169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" ht="26" spans="1:33">
+    <row r="11" spans="1:40" ht="23.65">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -13821,7 +13215,7 @@
         <v>45</v>
       </c>
       <c r="Z11" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA11" s="11" t="s">
         <v>46</v>
@@ -13833,7 +13227,7 @@
         <v>48</v>
       </c>
       <c r="AD11" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE11" s="11" t="s">
         <v>46</v>
@@ -13845,7 +13239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" ht="26" spans="1:33">
+    <row r="12" spans="1:40" ht="23.65">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -13891,7 +13285,7 @@
         <v>45</v>
       </c>
       <c r="Z12" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA12" s="11" t="s">
         <v>46</v>
@@ -13903,7 +13297,7 @@
         <v>48</v>
       </c>
       <c r="AD12" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE12" s="11" t="s">
         <v>46</v>
@@ -13915,7 +13309,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" ht="26" spans="1:33">
+    <row r="13" spans="1:40" ht="23.65">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -13958,7 +13352,7 @@
         <v>45</v>
       </c>
       <c r="Z13" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA13" s="11" t="s">
         <v>46</v>
@@ -13970,7 +13364,7 @@
         <v>48</v>
       </c>
       <c r="AD13" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE13" s="11" t="s">
         <v>46</v>
@@ -13982,7 +13376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" ht="26" spans="1:33">
+    <row r="14" spans="1:40" ht="23.65">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -14025,7 +13419,7 @@
         <v>45</v>
       </c>
       <c r="Z14" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA14" s="11" t="s">
         <v>46</v>
@@ -14037,7 +13431,7 @@
         <v>48</v>
       </c>
       <c r="AD14" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE14" s="11" t="s">
         <v>46</v>
@@ -14049,7 +13443,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" ht="26" spans="1:33">
+    <row r="15" spans="1:40" ht="23.65">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -14097,7 +13491,7 @@
         <v>45</v>
       </c>
       <c r="Z15" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA15" s="11" t="s">
         <v>46</v>
@@ -14109,7 +13503,7 @@
         <v>48</v>
       </c>
       <c r="AD15" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE15" s="11" t="s">
         <v>46</v>
@@ -14121,7 +13515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="26" spans="1:33">
+    <row r="16" spans="1:40" ht="23.65">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -14164,7 +13558,7 @@
         <v>45</v>
       </c>
       <c r="Z16" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA16" s="11" t="s">
         <v>46</v>
@@ -14176,7 +13570,7 @@
         <v>48</v>
       </c>
       <c r="AD16" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE16" s="11" t="s">
         <v>46</v>
@@ -14188,7 +13582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" ht="26" spans="1:33">
+    <row r="17" spans="1:33" ht="23.65">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -14231,7 +13625,7 @@
         <v>45</v>
       </c>
       <c r="Z17" s="21">
-        <v>43907.3958333333</v>
+        <v>43907.395833333299</v>
       </c>
       <c r="AA17" s="11" t="s">
         <v>46</v>
@@ -14243,7 +13637,7 @@
         <v>48</v>
       </c>
       <c r="AD17" s="12">
-        <v>43907.4270833333</v>
+        <v>43907.427083333299</v>
       </c>
       <c r="AE17" s="11" t="s">
         <v>46</v>
@@ -14255,7 +13649,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:33" ht="15.75">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -14286,7 +13680,7 @@
       </c>
       <c r="T18" s="21"/>
     </row>
-    <row r="19" ht="23" customHeight="1" spans="1:20">
+    <row r="19" spans="1:33" ht="23" customHeight="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -14313,12 +13707,12 @@
       </c>
       <c r="T19" s="21"/>
     </row>
-    <row r="20" s="11" customFormat="1" ht="23" customHeight="1" spans="1:20">
+    <row r="20" spans="1:33" ht="23" customHeight="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>51</v>
+        <v>3313</v>
       </c>
       <c r="C20" s="16">
         <v>43906</v>
@@ -14343,12 +13737,12 @@
       </c>
       <c r="T20" s="21"/>
     </row>
-    <row r="21" s="11" customFormat="1" ht="23" customHeight="1" spans="1:20">
+    <row r="21" spans="1:33" ht="23" customHeight="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>51</v>
+        <v>3313</v>
       </c>
       <c r="C21" s="16">
         <v>43906</v>
@@ -14376,72 +13770,109 @@
       </c>
       <c r="T21" s="21"/>
     </row>
+    <row r="22" spans="1:33" ht="23" customHeight="1">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C22" s="16">
+        <v>43906</v>
+      </c>
+      <c r="D22" s="16">
+        <v>43907</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+      <c r="M22" s="11">
+        <v>2</v>
+      </c>
+      <c r="T22" s="21"/>
+    </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G22:G1048576">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G23:G1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:R2 K19 I20:J20 K20 L20:R20 I21:J21 K21 L21:R21 J2:J17 K22:K1048576 L3:L17 N3:N17 P3:R17 I18:J19 L18:R19 I22:J1048576 L22:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:R2 K19:K22 J2:J17 L3:L17 N3:N17 P3:R17 I18:J22 L18:R22 I23:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B20 B21 B2:B19 B22:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20 H21 H2:H19 H22:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F20 F21 F2:F19 F22:F1048576">
-      <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA20 AE20 AK20 AA21 AE21 AK21 AA2:AA19 AA22:AA1048576 AE2:AE19 AE22:AE1048576 AK2:AK19 AK22:AK1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE1048576 AK2:AK1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC20 AC21 AC2:AC19 AC22:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG20 AM20 AG21 AM21 AG2:AG19 AG22:AG1048576 AM2:AM19 AM22:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V3:V17" r:id="rId2" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V3" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V4" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V5" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V6" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V7" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V8" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V9" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V10" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V11" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V12" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V13" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V14" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V15" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V16" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
-    <hyperlink ref="V17" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html"/>
+    <hyperlink ref="V2" r:id="rId1" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V3:V17" r:id="rId2" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="V3" r:id="rId3" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="V4" r:id="rId4" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V5" r:id="rId5" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="V6" r:id="rId6" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="V7" r:id="rId7" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="V8" r:id="rId8" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="V9" r:id="rId9" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="V10" r:id="rId10" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="V11" r:id="rId11" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="V12" r:id="rId12" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="V13" r:id="rId13" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="V14" r:id="rId14" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="V15" r:id="rId15" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="V16" r:id="rId16" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="V17" r:id="rId17" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202003/t20200317_3049445.html" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2907"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="T2" sqref="T2:T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.4615384615385" customWidth="1"/>
+    <col min="5" max="5" width="13.46875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -38753,7 +38184,7 @@
       <c r="F1496" s="3"/>
       <c r="AN1496" s="3"/>
     </row>
-    <row r="1497" s="1" customFormat="1" spans="1:40">
+    <row r="1497" spans="1:40" s="1" customFormat="1">
       <c r="A1497" s="7" t="s">
         <v>101</v>
       </c>
@@ -61599,8 +61030,8 @@
       <c r="AN2907" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/unchecked/manual_collect/china/shandong/shandongCaseStatistics_20200316.xlsx
+++ b/data/unchecked/manual_collect/china/shandong/shandongCaseStatistics_20200316.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\test\COVID-19\data\unchecked\manual_collect\china\shandong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19365567-38B8-4238-B67F-C1D9BB1EA5D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9425402-D86E-4266-9467-5D1AD29639C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11921,8 +11921,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -12082,17 +12082,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12387,7 +12387,7 @@
   <dimension ref="A1:AN22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9375" defaultRowHeight="15"/>
@@ -13775,7 +13775,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>3313</v>
+        <v>51</v>
       </c>
       <c r="C22" s="16">
         <v>43906</v>
